--- a/LaborShortageUSA/CountryMerge.xlsx
+++ b/LaborShortageUSA/CountryMerge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Study\GitHub\public\LaborShortageUSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F167D8-368C-480C-8E03-31DD74799B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA0254E-4D92-4395-B6AC-0F4E342AA6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25305" yWindow="8460" windowWidth="7500" windowHeight="6210" activeTab="1" xr2:uid="{F32D1A31-1008-4F04-A212-6A47894A9CB5}"/>
+    <workbookView xWindow="16170" yWindow="8220" windowWidth="7500" windowHeight="6210" activeTab="1" xr2:uid="{F32D1A31-1008-4F04-A212-6A47894A9CB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="658">
   <si>
     <t>Zimbabwe</t>
   </si>
@@ -1598,9 +1598,6 @@
     <t>birthplace</t>
   </si>
   <si>
-    <t>num</t>
-  </si>
-  <si>
     <t>canada</t>
   </si>
   <si>
@@ -1802,46 +1799,281 @@
     <t>australia</t>
   </si>
   <si>
-    <t>other, n.e.c</t>
+    <t>bermuda</t>
   </si>
   <si>
     <t>el salvador</t>
+  </si>
+  <si>
+    <t>bahamas</t>
+  </si>
+  <si>
+    <t>barbados</t>
+  </si>
+  <si>
+    <t>dominica</t>
+  </si>
+  <si>
+    <t>grenada</t>
+  </si>
+  <si>
+    <t>st. lucia</t>
+  </si>
+  <si>
+    <t>bolivia</t>
+  </si>
+  <si>
+    <t>colombia</t>
+  </si>
+  <si>
+    <t>uruguay</t>
+  </si>
+  <si>
+    <t>paraguay</t>
+  </si>
+  <si>
+    <t>denmark</t>
+  </si>
+  <si>
+    <t>finland</t>
+  </si>
+  <si>
+    <t>norway</t>
+  </si>
+  <si>
+    <t>scotland</t>
+  </si>
+  <si>
+    <t>ireland</t>
+  </si>
+  <si>
+    <t>northern ire</t>
+  </si>
+  <si>
+    <t>belgium</t>
+  </si>
+  <si>
+    <t>france</t>
+  </si>
+  <si>
+    <t>portugal</t>
+  </si>
+  <si>
+    <t>azores</t>
+  </si>
+  <si>
+    <t>austria</t>
+  </si>
+  <si>
+    <t>czechoslavak</t>
+  </si>
+  <si>
+    <t>slovakia</t>
+  </si>
+  <si>
+    <t>czech republ</t>
+  </si>
+  <si>
+    <t>hungary</t>
+  </si>
+  <si>
+    <t>bulgaria</t>
+  </si>
+  <si>
+    <t>albania</t>
+  </si>
+  <si>
+    <t>yugoslavia</t>
+  </si>
+  <si>
+    <t>croatia</t>
+  </si>
+  <si>
+    <t>macedonia</t>
+  </si>
+  <si>
+    <t>estonia</t>
+  </si>
+  <si>
+    <t>latvia</t>
+  </si>
+  <si>
+    <t>belarus</t>
+  </si>
+  <si>
+    <t>moldova</t>
+  </si>
+  <si>
+    <t>ussr, n.s</t>
+  </si>
+  <si>
+    <t>europe, n.s</t>
+  </si>
+  <si>
+    <t>china</t>
+  </si>
+  <si>
+    <t>mongolia</t>
+  </si>
+  <si>
+    <t>cambodia</t>
+  </si>
+  <si>
+    <t>indonesia</t>
+  </si>
+  <si>
+    <t>jordan</t>
+  </si>
+  <si>
+    <t>lebanon</t>
+  </si>
+  <si>
+    <t>saudi arabia</t>
+  </si>
+  <si>
+    <t>syria</t>
+  </si>
+  <si>
+    <t>turkey</t>
+  </si>
+  <si>
+    <t>kuwait</t>
+  </si>
+  <si>
+    <t>yemen</t>
+  </si>
+  <si>
+    <t>georgia</t>
+  </si>
+  <si>
+    <t>uzbekistan</t>
+  </si>
+  <si>
+    <t>kazakhstan</t>
+  </si>
+  <si>
+    <t>libya</t>
+  </si>
+  <si>
+    <t>sierra leone</t>
+  </si>
+  <si>
+    <t>guinea</t>
+  </si>
+  <si>
+    <t>togo</t>
+  </si>
+  <si>
+    <t>tanzania</t>
+  </si>
+  <si>
+    <t>zimbabwe</t>
+  </si>
+  <si>
+    <t>south africa</t>
+  </si>
+  <si>
+    <t>congo</t>
+  </si>
+  <si>
+    <t>zambia</t>
+  </si>
+  <si>
+    <t>new zealand</t>
+  </si>
+  <si>
+    <t>fiji</t>
+  </si>
+  <si>
+    <t>tonga</t>
+  </si>
+  <si>
+    <t>samoa</t>
+  </si>
+  <si>
+    <t>marshall isl</t>
+  </si>
+  <si>
+    <t>micronesia</t>
+  </si>
+  <si>
+    <t>birthplace(label)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>colombia</t>
+    <t>belize/briti</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>czech republ</t>
+    <t>costa rica</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>europe, n.s</t>
+    <t>panama</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>china</t>
+    <t>dominican re</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>saudi arabia</t>
+    <t>trinidad and</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sierra leone</t>
+    <t>antigua and</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>south africa</t>
+    <t>st. kitts--n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>new zealand</t>
+    <t>st. vincent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>marshall isl</t>
+    <t>caribbean, n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>argentina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guyana/briti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>south americ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bosnia and h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hong kong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sri lanka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>united arab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>egypt/united</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cape verde</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ivory coast</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1866,12 +2098,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1903,11 +2141,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7006,23 +7253,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3707D0D-DF44-43A4-A4E7-BC569F225A8C}">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B1" t="s">
         <v>504</v>
-      </c>
-      <c r="B1" t="s">
-        <v>505</v>
       </c>
       <c r="C1" t="s">
         <v>503</v>
@@ -7030,123 +7277,123 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>506</v>
+        <v>544</v>
       </c>
       <c r="B2">
-        <v>313938.27350000001</v>
+        <v>52000</v>
       </c>
       <c r="C2" s="1">
-        <v>124</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>507</v>
+        <v>599</v>
       </c>
       <c r="B3">
-        <v>6099431.9919999996</v>
-      </c>
-      <c r="C3" s="1">
-        <v>484</v>
+        <v>45675</v>
+      </c>
+      <c r="C3" s="4">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="B4">
-        <v>297264.87670000002</v>
+        <v>60016</v>
       </c>
       <c r="C4" s="1">
-        <v>222</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>508</v>
+        <v>635</v>
       </c>
       <c r="B5">
-        <v>100406.81230000001</v>
-      </c>
-      <c r="C5" s="1">
-        <v>320</v>
+        <v>71023</v>
+      </c>
+      <c r="C5" s="4">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>509</v>
+        <v>644</v>
       </c>
       <c r="B6">
-        <v>263144.033</v>
-      </c>
-      <c r="C6" s="1">
-        <v>340</v>
+        <v>26065</v>
+      </c>
+      <c r="C6" s="4">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>510</v>
+        <v>648</v>
       </c>
       <c r="B7">
-        <v>11532.4283</v>
+        <v>30005</v>
       </c>
       <c r="C7" s="1">
-        <v>558</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>511</v>
+        <v>571</v>
       </c>
       <c r="B8">
-        <v>21241.935600000001</v>
+        <v>70010</v>
       </c>
       <c r="C8" s="1">
-        <v>192</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>512</v>
+        <v>593</v>
       </c>
       <c r="B9">
-        <v>15474.843199999999</v>
+        <v>45000</v>
       </c>
       <c r="C9" s="1">
-        <v>332</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>513</v>
+        <v>574</v>
       </c>
       <c r="B10">
-        <v>19298.0399</v>
+        <v>26043</v>
       </c>
       <c r="C10" s="1">
-        <v>388</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>514</v>
+        <v>546</v>
       </c>
       <c r="B11">
-        <v>37594.329100000003</v>
-      </c>
-      <c r="C11" s="1">
-        <v>76</v>
+        <v>52110</v>
+      </c>
+      <c r="C11" s="4">
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>515</v>
+        <v>554</v>
       </c>
       <c r="B12">
-        <v>40698.8004</v>
+        <v>55100</v>
       </c>
       <c r="C12" s="1">
-        <v>152</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -7154,733 +7401,1550 @@
         <v>575</v>
       </c>
       <c r="B13">
-        <v>61462.721400000002</v>
-      </c>
-      <c r="C13" s="1">
-        <v>170</v>
+        <v>26044</v>
+      </c>
+      <c r="C13" s="4">
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>516</v>
+        <v>589</v>
       </c>
       <c r="B14">
-        <v>11813.380800000001</v>
+        <v>42000</v>
       </c>
       <c r="C14" s="1">
-        <v>218</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>517</v>
+        <v>572</v>
       </c>
       <c r="B15">
-        <v>47777.278400000003</v>
+        <v>16010</v>
       </c>
       <c r="C15" s="1">
-        <v>604</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
       <c r="B16">
-        <v>8624.4205000000002</v>
-      </c>
-      <c r="C16" s="1">
-        <v>862</v>
+        <v>52120</v>
+      </c>
+      <c r="C16" s="4">
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>519</v>
+        <v>579</v>
       </c>
       <c r="B17">
-        <v>20718.869600000002</v>
-      </c>
-      <c r="C17" s="1">
-        <v>352</v>
+        <v>30010</v>
+      </c>
+      <c r="C17" s="4">
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="B18">
-        <v>15890.632100000001</v>
-      </c>
-      <c r="C18" s="1">
-        <v>752</v>
+        <v>45700</v>
+      </c>
+      <c r="C18" s="4">
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>521</v>
+        <v>651</v>
       </c>
       <c r="B19">
-        <v>77297.664000000004</v>
-      </c>
-      <c r="C19" s="1">
-        <v>826</v>
+        <v>45720</v>
+      </c>
+      <c r="C19" s="4">
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="B20">
-        <v>55675.068800000001</v>
-      </c>
-      <c r="C20" s="1">
-        <v>826</v>
+        <v>30015</v>
+      </c>
+      <c r="C20" s="4">
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>523</v>
+        <v>650</v>
       </c>
       <c r="B21">
-        <v>24586.2327</v>
-      </c>
-      <c r="C21" s="1">
-        <v>528</v>
+        <v>30090</v>
+      </c>
+      <c r="C21" s="4">
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>524</v>
+        <v>639</v>
       </c>
       <c r="B22">
-        <v>27332.739600000001</v>
-      </c>
-      <c r="C22" s="1">
-        <v>756</v>
+        <v>21010</v>
+      </c>
+      <c r="C22" s="4">
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>525</v>
+        <v>598</v>
       </c>
       <c r="B23">
-        <v>23568.563999999998</v>
-      </c>
-      <c r="C23" s="1">
-        <v>300</v>
+        <v>45650</v>
+      </c>
+      <c r="C23" s="4">
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>526</v>
+        <v>548</v>
       </c>
       <c r="B24">
-        <v>27092.890100000001</v>
-      </c>
-      <c r="C24" s="1">
-        <v>380</v>
+        <v>52130</v>
+      </c>
+      <c r="C24" s="4">
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>527</v>
+        <v>605</v>
       </c>
       <c r="B25">
-        <v>100518.0894</v>
-      </c>
-      <c r="C25" s="1">
-        <v>724</v>
+        <v>46535</v>
+      </c>
+      <c r="C25" s="4">
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>576</v>
-      </c>
-      <c r="B26">
-        <v>11653.3423</v>
-      </c>
-      <c r="C26" s="1">
-        <v>203</v>
+      <c r="A26" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B26" s="2">
+        <v>51100</v>
+      </c>
+      <c r="C26" s="4">
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>528</v>
+        <v>561</v>
       </c>
       <c r="B27">
-        <v>43412.6489</v>
-      </c>
-      <c r="C27" s="1">
-        <v>276</v>
+        <v>60032</v>
+      </c>
+      <c r="C27" s="4">
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="B28">
-        <v>56132.307399999998</v>
+        <v>15000</v>
       </c>
       <c r="C28" s="1">
-        <v>616</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>530</v>
+        <v>656</v>
       </c>
       <c r="B29">
-        <v>4275.1127999999999</v>
+        <v>60033</v>
       </c>
       <c r="C29" s="1">
-        <v>642</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>531</v>
+        <v>653</v>
       </c>
       <c r="B30">
-        <v>11386.8284</v>
+        <v>52150</v>
       </c>
       <c r="C30" s="1">
-        <v>688</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
       <c r="B31">
-        <v>20438.625</v>
+        <v>30020</v>
       </c>
       <c r="C31" s="1">
-        <v>440</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>533</v>
+        <v>609</v>
       </c>
       <c r="B32">
-        <v>13212.0236</v>
-      </c>
-      <c r="C32" s="1">
-        <v>643</v>
+        <v>50000</v>
+      </c>
+      <c r="C32" s="4">
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>534</v>
+        <v>555</v>
       </c>
       <c r="B33">
-        <v>3900.5882999999999</v>
+        <v>59900</v>
       </c>
       <c r="C33" s="1">
-        <v>804</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>577</v>
+        <v>534</v>
       </c>
       <c r="B34">
-        <v>28855.400099999999</v>
-      </c>
-      <c r="C34" s="1">
-        <v>276</v>
+        <v>50040</v>
+      </c>
+      <c r="C34" s="4">
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B35">
-        <v>203563.53090000001</v>
+        <v>30025</v>
       </c>
       <c r="C35" s="1">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>535</v>
+        <v>630</v>
       </c>
       <c r="B36">
-        <v>4415.4191000000001</v>
-      </c>
-      <c r="C36" s="1">
-        <v>158</v>
+        <v>60096</v>
+      </c>
+      <c r="C36" s="4">
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>536</v>
+        <v>569</v>
       </c>
       <c r="B37">
-        <v>50407.040099999998</v>
-      </c>
-      <c r="C37" s="1">
-        <v>392</v>
+        <v>60095</v>
+      </c>
+      <c r="C37" s="4">
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>537</v>
+        <v>640</v>
       </c>
       <c r="B38">
-        <v>59013.867400000003</v>
-      </c>
-      <c r="C38" s="1">
-        <v>410</v>
+        <v>21020</v>
+      </c>
+      <c r="C38" s="4">
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>538</v>
-      </c>
-      <c r="B39">
-        <v>20009.3881</v>
-      </c>
-      <c r="C39" s="1">
-        <v>410</v>
+      <c r="A39" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B39" s="2">
+        <v>45730</v>
+      </c>
+      <c r="C39" s="4">
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>539</v>
+        <v>510</v>
       </c>
       <c r="B40">
-        <v>26076.362499999999</v>
-      </c>
-      <c r="C40" s="1">
-        <v>418</v>
+        <v>25000</v>
+      </c>
+      <c r="C40" s="4">
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>540</v>
+        <v>596</v>
       </c>
       <c r="B41">
-        <v>42523.557099999998</v>
+        <v>45213</v>
       </c>
       <c r="C41" s="1">
-        <v>458</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>541</v>
+        <v>594</v>
       </c>
       <c r="B42">
-        <v>45698.9686</v>
-      </c>
-      <c r="C42" s="1">
-        <v>608</v>
+        <v>45200</v>
+      </c>
+      <c r="C42" s="4">
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>542</v>
-      </c>
-      <c r="B43">
-        <v>12825.640299999999</v>
+      <c r="A43" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B43" s="2">
+        <v>40000</v>
       </c>
       <c r="C43" s="1">
-        <v>702</v>
+        <v>208</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>543</v>
+        <v>642</v>
       </c>
       <c r="B44">
-        <v>8512.6136999999999</v>
+        <v>26010</v>
       </c>
       <c r="C44" s="1">
-        <v>764</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>544</v>
+        <v>576</v>
       </c>
       <c r="B45">
-        <v>174272.61540000001</v>
-      </c>
-      <c r="C45" s="1">
-        <v>704</v>
+        <v>26054</v>
+      </c>
+      <c r="C45" s="4">
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>545</v>
-      </c>
-      <c r="B46">
-        <v>13734.2228</v>
-      </c>
-      <c r="C46" s="1">
-        <v>4</v>
+      <c r="A46" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B46" s="2">
+        <v>30030</v>
+      </c>
+      <c r="C46" s="3">
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
       <c r="B47">
-        <v>494306.11009999999</v>
-      </c>
-      <c r="C47" s="1">
-        <v>356</v>
+        <v>21030</v>
+      </c>
+      <c r="C47" s="4">
+        <v>222</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>547</v>
+        <v>625</v>
       </c>
       <c r="B48">
-        <v>12678.254300000001</v>
-      </c>
-      <c r="C48" s="1">
-        <v>50</v>
+        <v>60037</v>
+      </c>
+      <c r="C48" s="4">
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>548</v>
+        <v>565</v>
       </c>
       <c r="B49">
-        <v>110809.1847</v>
-      </c>
-      <c r="C49" s="1">
-        <v>64</v>
+        <v>60044</v>
+      </c>
+      <c r="C49" s="4">
+        <v>231</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="B50">
-        <v>52988.651599999997</v>
-      </c>
-      <c r="C50" s="1">
-        <v>104</v>
+        <v>60040</v>
+      </c>
+      <c r="C50" s="4">
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>550</v>
+        <v>603</v>
       </c>
       <c r="B51">
-        <v>9476.6425999999992</v>
+        <v>46100</v>
       </c>
       <c r="C51" s="1">
-        <v>586</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>551</v>
+        <v>633</v>
       </c>
       <c r="B52">
-        <v>124291.5662</v>
+        <v>71021</v>
       </c>
       <c r="C52" s="1">
-        <v>524</v>
+        <v>242</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>552</v>
+        <v>584</v>
       </c>
       <c r="B53">
-        <v>30413.702399999998</v>
+        <v>40100</v>
       </c>
       <c r="C53" s="1">
-        <v>364</v>
+        <v>246</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>553</v>
+        <v>590</v>
       </c>
       <c r="B54">
-        <v>105866.19500000001</v>
+        <v>42100</v>
       </c>
       <c r="C54" s="1">
-        <v>368</v>
+        <v>250</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>554</v>
+        <v>620</v>
       </c>
       <c r="B55">
-        <v>8347.1195000000007</v>
-      </c>
-      <c r="C55" s="1">
-        <v>376</v>
+        <v>55300</v>
+      </c>
+      <c r="C55" s="4">
+        <v>268</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>579</v>
+        <v>527</v>
       </c>
       <c r="B56">
-        <v>19316.615699999998</v>
-      </c>
-      <c r="C56" s="1">
-        <v>682</v>
+        <v>45300</v>
+      </c>
+      <c r="C56" s="4">
+        <v>276</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>555</v>
+        <v>608</v>
       </c>
       <c r="B57">
-        <v>4480.9321</v>
+        <v>49900</v>
       </c>
       <c r="C57" s="1">
-        <v>51</v>
+        <v>276</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B58">
-        <v>21565.018400000001</v>
-      </c>
-      <c r="C58" s="1">
-        <v>156</v>
+        <v>60023</v>
+      </c>
+      <c r="C58" s="4">
+        <v>288</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>557</v>
+        <v>524</v>
       </c>
       <c r="B59">
-        <v>50066.852800000001</v>
-      </c>
-      <c r="C59" s="1">
-        <v>504</v>
+        <v>43300</v>
+      </c>
+      <c r="C59" s="4">
+        <v>300</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
       <c r="B60">
-        <v>64438.829400000002</v>
-      </c>
-      <c r="C60" s="1">
-        <v>12</v>
+        <v>26055</v>
+      </c>
+      <c r="C60" s="4">
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>559</v>
+        <v>507</v>
       </c>
       <c r="B61">
-        <v>18321.505700000002</v>
+        <v>21040</v>
       </c>
       <c r="C61" s="1">
-        <v>729</v>
+        <v>320</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>560</v>
+        <v>649</v>
       </c>
       <c r="B62">
-        <v>96384.194199999998</v>
+        <v>30040</v>
       </c>
       <c r="C62" s="1">
-        <v>288</v>
+        <v>328</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>561</v>
+        <v>511</v>
       </c>
       <c r="B63">
-        <v>82287.813699999999</v>
-      </c>
-      <c r="C63" s="1">
-        <v>566</v>
+        <v>26020</v>
+      </c>
+      <c r="C63" s="4">
+        <v>332</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>562</v>
-      </c>
-      <c r="B64">
-        <v>48895.266300000003</v>
-      </c>
-      <c r="C64" s="1">
-        <v>120</v>
+      <c r="A64" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B64" s="2">
+        <v>21050</v>
+      </c>
+      <c r="C64" s="3">
+        <v>340</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>563</v>
+        <v>652</v>
       </c>
       <c r="B65">
-        <v>23051.6705</v>
+        <v>50010</v>
       </c>
       <c r="C65" s="1">
-        <v>430</v>
+        <v>344</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>564</v>
+        <v>597</v>
       </c>
       <c r="B66">
-        <v>16928.2762</v>
-      </c>
-      <c r="C66" s="1">
-        <v>686</v>
+        <v>45400</v>
+      </c>
+      <c r="C66" s="4">
+        <v>348</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>580</v>
+        <v>518</v>
       </c>
       <c r="B67">
-        <v>12669.9809</v>
-      </c>
-      <c r="C67" s="1">
-        <v>694</v>
+        <v>40200</v>
+      </c>
+      <c r="C67" s="4">
+        <v>352</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="B68">
-        <v>5691.7534999999998</v>
-      </c>
-      <c r="C68" s="1">
-        <v>232</v>
+        <v>52100</v>
+      </c>
+      <c r="C68" s="4">
+        <v>356</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>566</v>
+        <v>612</v>
       </c>
       <c r="B69">
-        <v>66774.871499999994</v>
-      </c>
-      <c r="C69" s="1">
-        <v>231</v>
+        <v>51200</v>
+      </c>
+      <c r="C69" s="4">
+        <v>360</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="B70">
-        <v>37059.866800000003</v>
-      </c>
-      <c r="C70" s="1">
-        <v>404</v>
+        <v>53000</v>
+      </c>
+      <c r="C70" s="4">
+        <v>364</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="B71">
-        <v>71601.090400000001</v>
-      </c>
-      <c r="C71" s="1">
-        <v>706</v>
+        <v>53200</v>
+      </c>
+      <c r="C71" s="4">
+        <v>368</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>569</v>
+        <v>587</v>
       </c>
       <c r="B72">
-        <v>19907.385200000001</v>
+        <v>41400</v>
       </c>
       <c r="C72" s="1">
-        <v>800</v>
+        <v>372</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>581</v>
+        <v>553</v>
       </c>
       <c r="B73">
-        <v>42592.294699999999</v>
-      </c>
-      <c r="C73" s="1">
-        <v>710</v>
+        <v>53400</v>
+      </c>
+      <c r="C73" s="4">
+        <v>376</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>570</v>
+        <v>525</v>
       </c>
       <c r="B74">
-        <v>39007.8992</v>
-      </c>
-      <c r="C74" s="1">
-        <v>180</v>
+        <v>43400</v>
+      </c>
+      <c r="C74" s="4">
+        <v>380</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>571</v>
+        <v>657</v>
       </c>
       <c r="B75">
-        <v>81210.971699999995</v>
-      </c>
-      <c r="C75" s="1">
-        <v>710</v>
+        <v>60038</v>
+      </c>
+      <c r="C75" s="4">
+        <v>384</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>572</v>
+        <v>512</v>
       </c>
       <c r="B76">
-        <v>97062.611000000004</v>
+        <v>26030</v>
       </c>
       <c r="C76" s="1">
-        <v>36</v>
+        <v>388</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>582</v>
+        <v>535</v>
       </c>
       <c r="B77">
-        <v>9664.1566000000003</v>
+        <v>50100</v>
       </c>
       <c r="C77" s="1">
-        <v>554</v>
+        <v>392</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>583</v>
+        <v>622</v>
       </c>
       <c r="B78">
-        <v>11141.757100000001</v>
+        <v>55500</v>
       </c>
       <c r="C78" s="1">
-        <v>584</v>
+        <v>398</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>573</v>
+        <v>613</v>
       </c>
       <c r="B79">
-        <v>4462.5604000000003</v>
+        <v>53500</v>
+      </c>
+      <c r="C79" s="4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>566</v>
+      </c>
+      <c r="B80">
+        <v>60045</v>
+      </c>
+      <c r="C80" s="1">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>536</v>
+      </c>
+      <c r="B81">
+        <v>50200</v>
+      </c>
+      <c r="C81" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>537</v>
+      </c>
+      <c r="B82">
+        <v>50220</v>
+      </c>
+      <c r="C82" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>618</v>
+      </c>
+      <c r="B83">
+        <v>54350</v>
+      </c>
+      <c r="C83" s="1">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>538</v>
+      </c>
+      <c r="B84">
+        <v>51300</v>
+      </c>
+      <c r="C84" s="1">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>614</v>
+      </c>
+      <c r="B85">
+        <v>53700</v>
+      </c>
+      <c r="C85" s="1">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>604</v>
+      </c>
+      <c r="B86">
+        <v>46200</v>
+      </c>
+      <c r="C86" s="1">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>562</v>
+      </c>
+      <c r="B87">
+        <v>60034</v>
+      </c>
+      <c r="C87" s="1">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>623</v>
+      </c>
+      <c r="B88">
+        <v>60019</v>
+      </c>
+      <c r="C88" s="1">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>531</v>
+      </c>
+      <c r="B89">
+        <v>46300</v>
+      </c>
+      <c r="C89" s="1">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>539</v>
+      </c>
+      <c r="B90">
+        <v>51400</v>
+      </c>
+      <c r="C90" s="1">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>506</v>
+      </c>
+      <c r="B91">
+        <v>20000</v>
+      </c>
+      <c r="C91" s="1">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>610</v>
+      </c>
+      <c r="B92">
+        <v>50300</v>
+      </c>
+      <c r="C92" s="1">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>606</v>
+      </c>
+      <c r="B93">
+        <v>46540</v>
+      </c>
+      <c r="C93" s="1">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>556</v>
+      </c>
+      <c r="B94">
+        <v>60014</v>
+      </c>
+      <c r="C94" s="1">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>550</v>
+      </c>
+      <c r="B95">
+        <v>52200</v>
+      </c>
+      <c r="C95" s="1">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>522</v>
+      </c>
+      <c r="B96">
+        <v>42500</v>
+      </c>
+      <c r="C96" s="1">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>632</v>
+      </c>
+      <c r="B97">
+        <v>70020</v>
+      </c>
+      <c r="C97" s="1">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>509</v>
+      </c>
+      <c r="B98">
+        <v>21060</v>
+      </c>
+      <c r="C98" s="1">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>560</v>
+      </c>
+      <c r="B99">
+        <v>60031</v>
+      </c>
+      <c r="C99" s="1">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>585</v>
+      </c>
+      <c r="B100">
+        <v>40400</v>
+      </c>
+      <c r="C100" s="1">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>637</v>
+      </c>
+      <c r="B101">
+        <v>72000</v>
+      </c>
+      <c r="C101" s="1">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>636</v>
+      </c>
+      <c r="B102">
+        <v>71024</v>
+      </c>
+      <c r="C102" s="1">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>549</v>
+      </c>
+      <c r="B103">
+        <v>52140</v>
+      </c>
+      <c r="C103" s="1">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>641</v>
+      </c>
+      <c r="B104">
+        <v>21070</v>
+      </c>
+      <c r="C104" s="1">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>582</v>
+      </c>
+      <c r="B105">
+        <v>30070</v>
+      </c>
+      <c r="C105" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>516</v>
+      </c>
+      <c r="B106">
+        <v>30050</v>
+      </c>
+      <c r="C106" s="1">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>540</v>
+      </c>
+      <c r="B107">
+        <v>51500</v>
+      </c>
+      <c r="C107" s="1">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>528</v>
+      </c>
+      <c r="B108">
+        <v>45500</v>
+      </c>
+      <c r="C108" s="1">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>591</v>
+      </c>
+      <c r="B109">
+        <v>43600</v>
+      </c>
+      <c r="C109" s="1">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>592</v>
+      </c>
+      <c r="B110">
+        <v>43610</v>
+      </c>
+      <c r="C110" s="1">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>529</v>
+      </c>
+      <c r="B111">
+        <v>45600</v>
+      </c>
+      <c r="C111" s="1">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>532</v>
+      </c>
+      <c r="B112">
+        <v>46500</v>
+      </c>
+      <c r="C112" s="1">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>607</v>
+      </c>
+      <c r="B113">
+        <v>46590</v>
+      </c>
+      <c r="C113" s="1">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>645</v>
+      </c>
+      <c r="B114">
+        <v>26070</v>
+      </c>
+      <c r="C114" s="1">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>578</v>
+      </c>
+      <c r="B115">
+        <v>26075</v>
+      </c>
+      <c r="C115" s="1">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>647</v>
+      </c>
+      <c r="B116">
+        <v>26091</v>
+      </c>
+      <c r="C116" s="1">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>646</v>
+      </c>
+      <c r="B117">
+        <v>26080</v>
+      </c>
+      <c r="C117" s="1">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>615</v>
+      </c>
+      <c r="B118">
+        <v>54000</v>
+      </c>
+      <c r="C118" s="1">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>563</v>
+      </c>
+      <c r="B119">
+        <v>60035</v>
+      </c>
+      <c r="C119" s="1">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>530</v>
+      </c>
+      <c r="B120">
+        <v>45750</v>
+      </c>
+      <c r="C120" s="1">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>624</v>
+      </c>
+      <c r="B121">
+        <v>60036</v>
+      </c>
+      <c r="C121" s="1">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B122" s="2">
+        <v>51600</v>
+      </c>
+      <c r="C122" s="3">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>595</v>
+      </c>
+      <c r="B123">
+        <v>45212</v>
+      </c>
+      <c r="C123" s="1">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>543</v>
+      </c>
+      <c r="B124">
+        <v>51800</v>
+      </c>
+      <c r="C124" s="1">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>567</v>
+      </c>
+      <c r="B125">
+        <v>60050</v>
+      </c>
+      <c r="C125" s="1">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>629</v>
+      </c>
+      <c r="B126">
+        <v>60094</v>
+      </c>
+      <c r="C126" s="1">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B127" s="2">
+        <v>60099</v>
+      </c>
+      <c r="C127" s="3">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>628</v>
+      </c>
+      <c r="B128">
+        <v>60070</v>
+      </c>
+      <c r="C128" s="1">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>526</v>
+      </c>
+      <c r="B129">
+        <v>43800</v>
+      </c>
+      <c r="C129" s="1">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>558</v>
+      </c>
+      <c r="B130">
+        <v>60018</v>
+      </c>
+      <c r="C130" s="1">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>519</v>
+      </c>
+      <c r="B131">
+        <v>40500</v>
+      </c>
+      <c r="C131" s="1">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>523</v>
+      </c>
+      <c r="B132">
+        <v>42600</v>
+      </c>
+      <c r="C132" s="1">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>616</v>
+      </c>
+      <c r="B133">
+        <v>54100</v>
+      </c>
+      <c r="C133" s="1">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>542</v>
+      </c>
+      <c r="B134">
+        <v>51700</v>
+      </c>
+      <c r="C134" s="1">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>626</v>
+      </c>
+      <c r="B135">
+        <v>60039</v>
+      </c>
+      <c r="C135" s="1">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>634</v>
+      </c>
+      <c r="B136">
+        <v>71022</v>
+      </c>
+      <c r="C136" s="1">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>643</v>
+      </c>
+      <c r="B137">
+        <v>26060</v>
+      </c>
+      <c r="C137" s="1">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>654</v>
+      </c>
+      <c r="B138">
+        <v>54500</v>
+      </c>
+      <c r="C138" s="1">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>617</v>
+      </c>
+      <c r="B139">
+        <v>54200</v>
+      </c>
+      <c r="C139" s="1">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>568</v>
+      </c>
+      <c r="B140">
+        <v>60065</v>
+      </c>
+      <c r="C140" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>533</v>
+      </c>
+      <c r="B141">
+        <v>46530</v>
+      </c>
+      <c r="C141" s="1">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>602</v>
+      </c>
+      <c r="B142">
+        <v>45740</v>
+      </c>
+      <c r="C142" s="1">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>655</v>
+      </c>
+      <c r="B143">
+        <v>60012</v>
+      </c>
+      <c r="C143" s="1">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>520</v>
+      </c>
+      <c r="B144">
+        <v>41000</v>
+      </c>
+      <c r="C144" s="1">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>521</v>
+      </c>
+      <c r="B145">
+        <v>41300</v>
+      </c>
+      <c r="C145" s="1">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>586</v>
+      </c>
+      <c r="B146">
+        <v>41100</v>
+      </c>
+      <c r="C146" s="1">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>588</v>
+      </c>
+      <c r="B147">
+        <v>41410</v>
+      </c>
+      <c r="C147" s="1">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>627</v>
+      </c>
+      <c r="B148">
+        <v>60060</v>
+      </c>
+      <c r="C148" s="1">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>581</v>
+      </c>
+      <c r="B149">
+        <v>30060</v>
+      </c>
+      <c r="C149" s="1">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>621</v>
+      </c>
+      <c r="B150">
+        <v>55400</v>
+      </c>
+      <c r="C150" s="1">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>517</v>
+      </c>
+      <c r="B151">
+        <v>30065</v>
+      </c>
+      <c r="C151" s="1">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>619</v>
+      </c>
+      <c r="B152">
+        <v>54400</v>
+      </c>
+      <c r="C152" s="1">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>631</v>
+      </c>
+      <c r="B153">
+        <v>60097</v>
+      </c>
+      <c r="C153" s="1">
+        <v>894</v>
       </c>
     </row>
   </sheetData>
